--- a/excel/rast_test.xlsx
+++ b/excel/rast_test.xlsx
@@ -380,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -401,10 +401,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -430,10 +430,10 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -459,7 +459,6 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -471,7 +470,6 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5822,6 +5820,12 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
     </row>
+    <row r="450" spans="1:10">
+      <c r="A450" s="1"/>
+    </row>
+    <row r="451" spans="1:10">
+      <c r="A451" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
